--- a/Code/Results/Cases/Case_1_81/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_81/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.258142020031276</v>
+        <v>7.802163441331366</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.340646072224391</v>
+        <v>9.148204694649557</v>
       </c>
       <c r="E2">
-        <v>10.972925486445</v>
+        <v>13.66263906284698</v>
       </c>
       <c r="F2">
-        <v>24.05718870614552</v>
+        <v>32.98997795880901</v>
       </c>
       <c r="G2">
-        <v>2.084220780677307</v>
+        <v>3.652609188650061</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.386781757137213</v>
+        <v>9.926579855817202</v>
       </c>
       <c r="K2">
-        <v>16.47485488615873</v>
+        <v>12.33396464199977</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.49945568552496</v>
+        <v>18.71970345397722</v>
       </c>
       <c r="O2">
-        <v>16.61922649475543</v>
+        <v>24.81047487196775</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.900284346671713</v>
+        <v>7.73022618312397</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.005558166067255</v>
+        <v>9.097931103324527</v>
       </c>
       <c r="E3">
-        <v>10.50366569076879</v>
+        <v>13.60361568626759</v>
       </c>
       <c r="F3">
-        <v>23.46015512380419</v>
+        <v>32.99979720809023</v>
       </c>
       <c r="G3">
-        <v>2.08971901130439</v>
+        <v>3.654714673885186</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.271721817417561</v>
+        <v>9.93266694723243</v>
       </c>
       <c r="K3">
-        <v>15.43594541857277</v>
+        <v>11.99242327940801</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.68120594734073</v>
+        <v>18.7781689841043</v>
       </c>
       <c r="O3">
-        <v>16.41960846981726</v>
+        <v>24.86407482211169</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.673999456532857</v>
+        <v>7.687554255760942</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.794618774904265</v>
+        <v>9.068507454728595</v>
       </c>
       <c r="E4">
-        <v>10.21114291746576</v>
+        <v>13.57012779578047</v>
       </c>
       <c r="F4">
-        <v>23.10799117268365</v>
+        <v>33.01421444705095</v>
       </c>
       <c r="G4">
-        <v>2.093199551747278</v>
+        <v>3.656076423203922</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.203703871831475</v>
+        <v>9.938011878245279</v>
       </c>
       <c r="K4">
-        <v>14.76215596411462</v>
+        <v>11.77926643092534</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.79605381302928</v>
+        <v>18.81593448140726</v>
       </c>
       <c r="O4">
-        <v>16.31144097445071</v>
+        <v>24.9027067789354</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.580268464193245</v>
+        <v>7.670561217975227</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.707470788253639</v>
+        <v>9.056889759720352</v>
       </c>
       <c r="E5">
-        <v>10.09100499242049</v>
+        <v>13.55718391833187</v>
       </c>
       <c r="F5">
-        <v>22.96821601374336</v>
+        <v>33.0221974786387</v>
       </c>
       <c r="G5">
-        <v>2.094644860116308</v>
+        <v>3.656648746368302</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.176663210827126</v>
+        <v>9.94059447789787</v>
       </c>
       <c r="K5">
-        <v>14.47855620856809</v>
+        <v>11.69166443551858</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.84368267384589</v>
+        <v>18.83179501806228</v>
       </c>
       <c r="O5">
-        <v>16.27090532446482</v>
+        <v>24.91988482883057</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.56461705636247</v>
+        <v>7.667764016277652</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.692931920197749</v>
+        <v>9.054983424924377</v>
       </c>
       <c r="E6">
-        <v>10.07100531842219</v>
+        <v>13.55507732896185</v>
       </c>
       <c r="F6">
-        <v>22.94523500672473</v>
+        <v>33.0236503019979</v>
       </c>
       <c r="G6">
-        <v>2.094886499414685</v>
+        <v>3.656744832698577</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.172214472962055</v>
+        <v>9.941047753587906</v>
       </c>
       <c r="K6">
-        <v>14.43091989742163</v>
+        <v>11.67707747176043</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.8516416655346</v>
+        <v>18.83445711841104</v>
       </c>
       <c r="O6">
-        <v>16.26438597500499</v>
+        <v>24.92282380637759</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.672741325675949</v>
+        <v>7.68732345264837</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.793448110899644</v>
+        <v>9.0683492533723</v>
       </c>
       <c r="E7">
-        <v>10.20952622741616</v>
+        <v>13.56995037164437</v>
       </c>
       <c r="F7">
-        <v>23.10609085787474</v>
+        <v>33.01431357701284</v>
       </c>
       <c r="G7">
-        <v>2.093218933674432</v>
+        <v>3.656084071230856</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.203336429830636</v>
+        <v>9.938045069990416</v>
       </c>
       <c r="K7">
-        <v>14.75836776961787</v>
+        <v>11.77808781593862</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.79669278955527</v>
+        <v>18.81614647433333</v>
       </c>
       <c r="O7">
-        <v>16.31088005843151</v>
+        <v>24.90293264186154</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.13618646785148</v>
+        <v>7.777060499202483</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.226251163183176</v>
+        <v>9.130576362825622</v>
       </c>
       <c r="E8">
-        <v>10.81213402403282</v>
+        <v>13.64172306024211</v>
       </c>
       <c r="F8">
-        <v>23.84840729287733</v>
+        <v>32.99162218961269</v>
       </c>
       <c r="G8">
-        <v>2.086095264868502</v>
+        <v>3.653320878081886</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.346573344327192</v>
+        <v>9.928345270947981</v>
       </c>
       <c r="K8">
-        <v>16.12408519546347</v>
+        <v>12.21699165247838</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.56145387722742</v>
+        <v>18.73947551364553</v>
       </c>
       <c r="O8">
-        <v>16.54736636284535</v>
+        <v>24.82776667252026</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.988188782317591</v>
+        <v>7.96403102391786</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.029440425681731</v>
+        <v>9.263627959934679</v>
       </c>
       <c r="E9">
-        <v>11.95248080307121</v>
+        <v>13.80380808955783</v>
       </c>
       <c r="F9">
-        <v>25.41341352722596</v>
+        <v>33.01369295144377</v>
       </c>
       <c r="G9">
-        <v>2.072924376098234</v>
+        <v>3.648447003213953</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.647581459846529</v>
+        <v>9.922061719780418</v>
       </c>
       <c r="K9">
-        <v>18.51809284922788</v>
+        <v>13.04508089975344</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.12552510228419</v>
+        <v>18.60388575673616</v>
       </c>
       <c r="O9">
-        <v>17.12832211144558</v>
+        <v>24.72590556323273</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.617605384326687</v>
+        <v>8.106875603111568</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.58709361139678</v>
+        <v>9.367486032454048</v>
       </c>
       <c r="E10">
-        <v>12.75790889267518</v>
+        <v>13.93517261049212</v>
       </c>
       <c r="F10">
-        <v>26.62313593163837</v>
+        <v>33.07043352919422</v>
       </c>
       <c r="G10">
-        <v>2.063688127429681</v>
+        <v>3.645194714018115</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.88000597250852</v>
+        <v>9.925182903708169</v>
       </c>
       <c r="K10">
-        <v>20.105442105895</v>
+        <v>13.62719721490761</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.82012155340807</v>
+        <v>18.51318931181699</v>
       </c>
       <c r="O10">
-        <v>17.63002303322034</v>
+        <v>24.67900602901208</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.925905290829601</v>
+        <v>8.172781065334027</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.833030305758404</v>
+        <v>9.41592014076123</v>
       </c>
       <c r="E11">
-        <v>13.11618364267231</v>
+        <v>13.99742923791245</v>
       </c>
       <c r="F11">
-        <v>27.18516243397342</v>
+        <v>33.10500690471713</v>
       </c>
       <c r="G11">
-        <v>2.059570946175715</v>
+        <v>3.643785751207516</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.98799070104</v>
+        <v>9.928274639623373</v>
       </c>
       <c r="K11">
-        <v>20.79087086741503</v>
+        <v>13.8851296905974</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.68429281832936</v>
+        <v>18.47384994130229</v>
       </c>
       <c r="O11">
-        <v>17.87509050690114</v>
+        <v>24.66376661790119</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.040193653629707</v>
+        <v>8.197848132610572</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.925003895337452</v>
+        <v>9.434419557784722</v>
       </c>
       <c r="E12">
-        <v>13.25061834792692</v>
+        <v>14.02134796294409</v>
       </c>
       <c r="F12">
-        <v>27.39957596130805</v>
+        <v>33.11935325957197</v>
       </c>
       <c r="G12">
-        <v>2.058023046282416</v>
+        <v>3.643262297196658</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.029190598000519</v>
+        <v>9.929684863578471</v>
       </c>
       <c r="K12">
-        <v>21.04520578612841</v>
+        <v>13.98172659513868</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.63329498148356</v>
+        <v>18.45922787958336</v>
       </c>
       <c r="O12">
-        <v>17.97035084882647</v>
+        <v>24.65887410168882</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.015688524596834</v>
+        <v>8.192444957904879</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.905247791762928</v>
+        <v>9.430428529971135</v>
       </c>
       <c r="E13">
-        <v>13.2217213165283</v>
+        <v>14.01618161777795</v>
       </c>
       <c r="F13">
-        <v>27.35332902362405</v>
+        <v>33.11620784224205</v>
       </c>
       <c r="G13">
-        <v>2.05835593258751</v>
+        <v>3.643374584452856</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.020303973052039</v>
+        <v>9.929370513779634</v>
       </c>
       <c r="K13">
-        <v>20.99066159258032</v>
+        <v>13.96097191293032</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.64425894425219</v>
+        <v>18.46236479197988</v>
       </c>
       <c r="O13">
-        <v>17.94972493039044</v>
+        <v>24.65988870508636</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.935356980028496</v>
+        <v>8.174841272269026</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.840620435027905</v>
+        <v>9.417438995067004</v>
       </c>
       <c r="E14">
-        <v>13.12726877297498</v>
+        <v>13.99939025407191</v>
       </c>
       <c r="F14">
-        <v>27.20277108162559</v>
+        <v>33.10616209045651</v>
       </c>
       <c r="G14">
-        <v>2.059443381018399</v>
+        <v>3.643742484410453</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.991374142476476</v>
+        <v>9.928385866653482</v>
       </c>
       <c r="K14">
-        <v>20.81189950084071</v>
+        <v>13.89309882499052</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.68008847202159</v>
+        <v>18.4726414718361</v>
       </c>
       <c r="O14">
-        <v>17.88287815918919</v>
+        <v>24.66334649606827</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.88583223356966</v>
+        <v>8.164072166878606</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.800882482178269</v>
+        <v>9.40950279404505</v>
       </c>
       <c r="E15">
-        <v>13.06925113638997</v>
+        <v>13.98914931399019</v>
       </c>
       <c r="F15">
-        <v>27.11075391379171</v>
+        <v>33.10017191264588</v>
       </c>
       <c r="G15">
-        <v>2.06011090202045</v>
+        <v>3.643969146216391</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.973693521730791</v>
+        <v>9.927813894470388</v>
       </c>
       <c r="K15">
-        <v>20.70172409497418</v>
+        <v>13.85138193770713</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.70209183747026</v>
+        <v>18.47897200533111</v>
       </c>
       <c r="O15">
-        <v>17.84225380026285</v>
+        <v>24.66557892190676</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.59711188465308</v>
+        <v>8.102585177525693</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.57086126121493</v>
+        <v>9.364343608652138</v>
       </c>
       <c r="E16">
-        <v>12.73432515134427</v>
+        <v>13.93115293176564</v>
       </c>
       <c r="F16">
-        <v>26.58663318473702</v>
+        <v>33.06834992567025</v>
       </c>
       <c r="G16">
-        <v>2.063958813892242</v>
+        <v>3.645288207719006</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.872992883840953</v>
+        <v>9.9250144147701</v>
       </c>
       <c r="K16">
-        <v>20.05991408056308</v>
+        <v>13.61019467064077</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.82905995217383</v>
+        <v>18.51579875676033</v>
       </c>
       <c r="O16">
-        <v>17.61434942189966</v>
+        <v>24.68012477995453</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.415585695384289</v>
+        <v>8.065085461184619</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.427732823203538</v>
+        <v>9.336935559597256</v>
       </c>
       <c r="E17">
-        <v>12.52672501934489</v>
+        <v>13.89620287716569</v>
       </c>
       <c r="F17">
-        <v>26.26802837123535</v>
+        <v>33.05106860387475</v>
       </c>
       <c r="G17">
-        <v>2.066340350747399</v>
+        <v>3.646115434607596</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.811781789606785</v>
+        <v>9.923724591987325</v>
       </c>
       <c r="K17">
-        <v>19.65682735688141</v>
+        <v>13.46040799254729</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.90773887762758</v>
+        <v>18.53888151210914</v>
       </c>
       <c r="O17">
-        <v>17.47887838971768</v>
+        <v>24.69061079748256</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.320061026562612</v>
+        <v>8.043605027850681</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.344682249133117</v>
+        <v>9.321283809306763</v>
       </c>
       <c r="E18">
-        <v>12.40655770972242</v>
+        <v>13.87633666070075</v>
       </c>
       <c r="F18">
-        <v>26.08588331733652</v>
+        <v>33.04195397876047</v>
       </c>
       <c r="G18">
-        <v>2.067718156097742</v>
+        <v>3.646597874322919</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.776787746427035</v>
+        <v>9.92314015279565</v>
       </c>
       <c r="K18">
-        <v>19.4215280604056</v>
+        <v>13.37361224450511</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.95328525263891</v>
+        <v>18.55233877858357</v>
       </c>
       <c r="O18">
-        <v>17.40254232120783</v>
+        <v>24.69721572660242</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.290382311312372</v>
+        <v>8.036348004819125</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.316439430543433</v>
+        <v>9.316004115478579</v>
       </c>
       <c r="E19">
-        <v>12.36574276996121</v>
+        <v>13.86965132681357</v>
       </c>
       <c r="F19">
-        <v>26.02440568542738</v>
+        <v>33.03900979435758</v>
       </c>
       <c r="G19">
-        <v>2.068186060752035</v>
+        <v>3.646762362227592</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.76497644860774</v>
+        <v>9.922969338196316</v>
       </c>
       <c r="K19">
-        <v>19.34126503398637</v>
+        <v>13.34411717649241</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.9687569451209</v>
+        <v>18.55692624081062</v>
       </c>
       <c r="O19">
-        <v>17.37696698435858</v>
+        <v>24.69955050489196</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.435077693898792</v>
+        <v>8.069068385641778</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.443044672657692</v>
+        <v>9.339841625260755</v>
       </c>
       <c r="E20">
-        <v>12.54890374331802</v>
+        <v>13.89989904372777</v>
       </c>
       <c r="F20">
-        <v>26.3018304866373</v>
+        <v>33.05282286922289</v>
       </c>
       <c r="G20">
-        <v>2.066086009950875</v>
+        <v>3.646026687977729</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.818275894207932</v>
+        <v>9.923845608696846</v>
       </c>
       <c r="K20">
-        <v>19.70009380937632</v>
+        <v>13.47642019064516</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.89933317804768</v>
+        <v>18.53640562161531</v>
       </c>
       <c r="O20">
-        <v>17.49313536966416</v>
+        <v>24.68943515800222</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.959018809241522</v>
+        <v>8.180009095353686</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.859634760866308</v>
+        <v>9.421250135842344</v>
       </c>
       <c r="E21">
-        <v>13.15504578490959</v>
+        <v>14.00431309084255</v>
       </c>
       <c r="F21">
-        <v>27.24695125579676</v>
+        <v>33.10907878623462</v>
       </c>
       <c r="G21">
-        <v>2.059123675377494</v>
+        <v>3.643634149850485</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.999863279064942</v>
+        <v>9.928668591116711</v>
       </c>
       <c r="K21">
-        <v>20.86454755243009</v>
+        <v>13.91306467181946</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.6695526596284</v>
+        <v>18.46961550915687</v>
       </c>
       <c r="O21">
-        <v>17.90244567325242</v>
+        <v>24.66230700952762</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.287128993896514</v>
+        <v>8.253146472107332</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.125141997556755</v>
+        <v>9.475373062622392</v>
       </c>
       <c r="E22">
-        <v>13.54396957324569</v>
+        <v>14.07454812836917</v>
       </c>
       <c r="F22">
-        <v>27.87385450574683</v>
+        <v>33.15315189491129</v>
       </c>
       <c r="G22">
-        <v>2.054638102416446</v>
+        <v>3.642129274541782</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.120333161885646</v>
+        <v>9.933215848585874</v>
       </c>
       <c r="K22">
-        <v>21.59517514391356</v>
+        <v>14.19212731282397</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.52192480180268</v>
+        <v>18.42756619603274</v>
       </c>
       <c r="O22">
-        <v>18.18429946034167</v>
+        <v>24.64969723207649</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.113311748851642</v>
+        <v>8.214061454579538</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.984065914134145</v>
+        <v>9.446406834133734</v>
       </c>
       <c r="E23">
-        <v>13.33707295678008</v>
+        <v>14.0368852308809</v>
       </c>
       <c r="F23">
-        <v>27.53844989838825</v>
+        <v>33.12896294884612</v>
       </c>
       <c r="G23">
-        <v>2.057026549046177</v>
+        <v>3.642927092593154</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.055876764244349</v>
+        <v>9.930661587943321</v>
       </c>
       <c r="K23">
-        <v>21.20798966059851</v>
+        <v>14.04379056799654</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.60048611581554</v>
+        <v>18.44986246892663</v>
       </c>
       <c r="O23">
-        <v>18.03254473083661</v>
+        <v>24.65595834149883</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.426270578781688</v>
+        <v>8.067267458764439</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.436124562154927</v>
+        <v>9.338527463413529</v>
       </c>
       <c r="E24">
-        <v>12.53887927605039</v>
+        <v>13.89822729845872</v>
       </c>
       <c r="F24">
-        <v>26.28654534960728</v>
+        <v>33.05202720917076</v>
       </c>
       <c r="G24">
-        <v>2.066200970479313</v>
+        <v>3.646066788968826</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.815339294596134</v>
+        <v>9.923790407629731</v>
       </c>
       <c r="K24">
-        <v>19.68054413656745</v>
+        <v>13.46918319148028</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.90313241984644</v>
+        <v>18.53752439011024</v>
       </c>
       <c r="O24">
-        <v>17.48668497006809</v>
+        <v>24.68996486933263</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.764375286169166</v>
+        <v>7.912398388428113</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.817571455988675</v>
+        <v>9.226515639311012</v>
       </c>
       <c r="E25">
-        <v>11.6492344025608</v>
+        <v>13.75774730629466</v>
       </c>
       <c r="F25">
-        <v>24.97903859245863</v>
+        <v>33.00059626989763</v>
       </c>
       <c r="G25">
-        <v>2.076406581124758</v>
+        <v>3.649707564968808</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.564099668732753</v>
+        <v>9.922400269593281</v>
       </c>
       <c r="K25">
-        <v>17.90073114720822</v>
+        <v>12.82524623760381</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.24080130143126</v>
+        <v>18.63899414259977</v>
       </c>
       <c r="O25">
-        <v>16.95822407766419</v>
+        <v>24.74856674147276</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_81/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_81/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.802163441331366</v>
+        <v>7.258142020031301</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.148204694649557</v>
+        <v>7.340646072224347</v>
       </c>
       <c r="E2">
-        <v>13.66263906284698</v>
+        <v>10.97292548644497</v>
       </c>
       <c r="F2">
-        <v>32.98997795880901</v>
+        <v>24.05718870614542</v>
       </c>
       <c r="G2">
-        <v>3.652609188650061</v>
+        <v>2.084220780677307</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.926579855817202</v>
+        <v>6.386781757137222</v>
       </c>
       <c r="K2">
-        <v>12.33396464199977</v>
+        <v>16.47485488615877</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.71970345397722</v>
+        <v>12.49945568552496</v>
       </c>
       <c r="O2">
-        <v>24.81047487196775</v>
+        <v>16.61922649475536</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.73022618312397</v>
+        <v>6.900284346671734</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.097931103324527</v>
+        <v>7.005558166067232</v>
       </c>
       <c r="E3">
-        <v>13.60361568626759</v>
+        <v>10.50366569076879</v>
       </c>
       <c r="F3">
-        <v>32.99979720809023</v>
+        <v>23.46015512380397</v>
       </c>
       <c r="G3">
-        <v>3.654714673885186</v>
+        <v>2.089719011304524</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.93266694723243</v>
+        <v>6.271721817417592</v>
       </c>
       <c r="K3">
-        <v>11.99242327940801</v>
+        <v>15.43594541857282</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.7781689841043</v>
+        <v>12.68120594734066</v>
       </c>
       <c r="O3">
-        <v>24.86407482211169</v>
+        <v>16.41960846981709</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.687554255760942</v>
+        <v>6.67399945653282</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.068507454728595</v>
+        <v>6.794618774904297</v>
       </c>
       <c r="E4">
-        <v>13.57012779578047</v>
+        <v>10.2111429174658</v>
       </c>
       <c r="F4">
-        <v>33.01421444705095</v>
+        <v>23.10799117268355</v>
       </c>
       <c r="G4">
-        <v>3.656076423203922</v>
+        <v>2.093199551747412</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.938011878245279</v>
+        <v>6.203703871831451</v>
       </c>
       <c r="K4">
-        <v>11.77926643092534</v>
+        <v>14.76215596411465</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.81593448140726</v>
+        <v>12.79605381302918</v>
       </c>
       <c r="O4">
-        <v>24.9027067789354</v>
+        <v>16.31144097445063</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.670561217975227</v>
+        <v>6.580268464193255</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.056889759720352</v>
+        <v>6.70747078825364</v>
       </c>
       <c r="E5">
-        <v>13.55718391833187</v>
+        <v>10.09100499242052</v>
       </c>
       <c r="F5">
-        <v>33.0221974786387</v>
+        <v>22.96821601374323</v>
       </c>
       <c r="G5">
-        <v>3.656648746368302</v>
+        <v>2.094644860116307</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.94059447789787</v>
+        <v>6.176663210827126</v>
       </c>
       <c r="K5">
-        <v>11.69166443551858</v>
+        <v>14.47855620856817</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.83179501806228</v>
+        <v>12.84368267384589</v>
       </c>
       <c r="O5">
-        <v>24.91988482883057</v>
+        <v>16.27090532446472</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.667764016277652</v>
+        <v>6.564617056362477</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.054983424924377</v>
+        <v>6.692931920197847</v>
       </c>
       <c r="E6">
-        <v>13.55507732896185</v>
+        <v>10.07100531842223</v>
       </c>
       <c r="F6">
-        <v>33.0236503019979</v>
+        <v>22.94523500672473</v>
       </c>
       <c r="G6">
-        <v>3.656744832698577</v>
+        <v>2.094886499414685</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.941047753587906</v>
+        <v>6.172214472962008</v>
       </c>
       <c r="K6">
-        <v>11.67707747176043</v>
+        <v>14.43091989742166</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.83445711841104</v>
+        <v>12.85164166553459</v>
       </c>
       <c r="O6">
-        <v>24.92282380637759</v>
+        <v>16.26438597500493</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.68732345264837</v>
+        <v>6.672741325675944</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.0683492533723</v>
+        <v>6.793448110899596</v>
       </c>
       <c r="E7">
-        <v>13.56995037164437</v>
+        <v>10.20952622741611</v>
       </c>
       <c r="F7">
-        <v>33.01431357701284</v>
+        <v>23.1060908578745</v>
       </c>
       <c r="G7">
-        <v>3.656084071230856</v>
+        <v>2.093218933674433</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.938045069990416</v>
+        <v>6.203336429830638</v>
       </c>
       <c r="K7">
-        <v>11.77808781593862</v>
+        <v>14.75836776961792</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.81614647433333</v>
+        <v>12.79669278955521</v>
       </c>
       <c r="O7">
-        <v>24.90293264186154</v>
+        <v>16.31088005843132</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.777060499202483</v>
+        <v>7.136186467851504</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.130576362825622</v>
+        <v>7.226251163183226</v>
       </c>
       <c r="E8">
-        <v>13.64172306024211</v>
+        <v>10.8121340240328</v>
       </c>
       <c r="F8">
-        <v>32.99162218961269</v>
+        <v>23.84840729287707</v>
       </c>
       <c r="G8">
-        <v>3.653320878081886</v>
+        <v>2.086095264868636</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.928345270947981</v>
+        <v>6.346573344327182</v>
       </c>
       <c r="K8">
-        <v>12.21699165247838</v>
+        <v>16.1240851954636</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.73947551364553</v>
+        <v>12.56145387722732</v>
       </c>
       <c r="O8">
-        <v>24.82776667252026</v>
+        <v>16.54736636284507</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.96403102391786</v>
+        <v>7.988188782317608</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.263627959934679</v>
+        <v>8.029440425681747</v>
       </c>
       <c r="E9">
-        <v>13.80380808955783</v>
+        <v>11.95248080307123</v>
       </c>
       <c r="F9">
-        <v>33.01369295144377</v>
+        <v>25.41341352722586</v>
       </c>
       <c r="G9">
-        <v>3.648447003213953</v>
+        <v>2.072924376098099</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.922061719780418</v>
+        <v>6.647581459846561</v>
       </c>
       <c r="K9">
-        <v>13.04508089975344</v>
+        <v>18.51809284922792</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.60388575673616</v>
+        <v>12.12552510228419</v>
       </c>
       <c r="O9">
-        <v>24.72590556323273</v>
+        <v>17.12832211144552</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.106875603111568</v>
+        <v>8.617605384326673</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.367486032454048</v>
+        <v>8.587093611396721</v>
       </c>
       <c r="E10">
-        <v>13.93517261049212</v>
+        <v>12.75790889267519</v>
       </c>
       <c r="F10">
-        <v>33.07043352919422</v>
+        <v>26.6231359316383</v>
       </c>
       <c r="G10">
-        <v>3.645194714018115</v>
+        <v>2.063688127429413</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.925182903708169</v>
+        <v>6.880005972508559</v>
       </c>
       <c r="K10">
-        <v>13.62719721490761</v>
+        <v>20.105442105895</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.51318931181699</v>
+        <v>11.82012155340803</v>
       </c>
       <c r="O10">
-        <v>24.67900602901208</v>
+        <v>17.63002303322027</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.172781065334027</v>
+        <v>8.925905290829638</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.41592014076123</v>
+        <v>8.833030305758456</v>
       </c>
       <c r="E11">
-        <v>13.99742923791245</v>
+        <v>13.11618364267234</v>
       </c>
       <c r="F11">
-        <v>33.10500690471713</v>
+        <v>27.18516243397332</v>
       </c>
       <c r="G11">
-        <v>3.643785751207516</v>
+        <v>2.05957094617585</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.928274639623373</v>
+        <v>6.98799070104001</v>
       </c>
       <c r="K11">
-        <v>13.8851296905974</v>
+        <v>20.7908708674151</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.47384994130229</v>
+        <v>11.68429281832926</v>
       </c>
       <c r="O11">
-        <v>24.66376661790119</v>
+        <v>17.87509050690101</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.197848132610572</v>
+        <v>9.04019365362972</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.434419557784722</v>
+        <v>8.925003895337461</v>
       </c>
       <c r="E12">
-        <v>14.02134796294409</v>
+        <v>13.25061834792693</v>
       </c>
       <c r="F12">
-        <v>33.11935325957197</v>
+        <v>27.39957596130798</v>
       </c>
       <c r="G12">
-        <v>3.643262297196658</v>
+        <v>2.058023046282417</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.929684863578471</v>
+        <v>7.029190598000515</v>
       </c>
       <c r="K12">
-        <v>13.98172659513868</v>
+        <v>21.04520578612849</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.45922787958336</v>
+        <v>11.63329498148353</v>
       </c>
       <c r="O12">
-        <v>24.65887410168882</v>
+        <v>17.97035084882636</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.192444957904879</v>
+        <v>9.015688524596852</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.430428529971135</v>
+        <v>8.905247791762946</v>
       </c>
       <c r="E13">
-        <v>14.01618161777795</v>
+        <v>13.2217213165283</v>
       </c>
       <c r="F13">
-        <v>33.11620784224205</v>
+        <v>27.35332902362404</v>
       </c>
       <c r="G13">
-        <v>3.643374584452856</v>
+        <v>2.058355932587646</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.929370513779634</v>
+        <v>7.020303973052068</v>
       </c>
       <c r="K13">
-        <v>13.96097191293032</v>
+        <v>20.9906615925803</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.46236479197988</v>
+        <v>11.6442589442522</v>
       </c>
       <c r="O13">
-        <v>24.65988870508636</v>
+        <v>17.94972493039043</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.174841272269026</v>
+        <v>8.935356980028439</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.417438995067004</v>
+        <v>8.840620435027889</v>
       </c>
       <c r="E14">
-        <v>13.99939025407191</v>
+        <v>13.127268772975</v>
       </c>
       <c r="F14">
-        <v>33.10616209045651</v>
+        <v>27.20277108162548</v>
       </c>
       <c r="G14">
-        <v>3.643742484410453</v>
+        <v>2.059443381018534</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.928385866653482</v>
+        <v>6.991374142476527</v>
       </c>
       <c r="K14">
-        <v>13.89309882499052</v>
+        <v>20.81189950084073</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.4726414718361</v>
+        <v>11.68008847202156</v>
       </c>
       <c r="O14">
-        <v>24.66334649606827</v>
+        <v>17.88287815918913</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.164072166878606</v>
+        <v>8.885832233569625</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.40950279404505</v>
+        <v>8.800882482178215</v>
       </c>
       <c r="E15">
-        <v>13.98914931399019</v>
+        <v>13.06925113638997</v>
       </c>
       <c r="F15">
-        <v>33.10017191264588</v>
+        <v>27.11075391379155</v>
       </c>
       <c r="G15">
-        <v>3.643969146216391</v>
+        <v>2.06011090202045</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.927813894470388</v>
+        <v>6.973693521730818</v>
       </c>
       <c r="K15">
-        <v>13.85138193770713</v>
+        <v>20.70172409497426</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.47897200533111</v>
+        <v>11.70209183747013</v>
       </c>
       <c r="O15">
-        <v>24.66557892190676</v>
+        <v>17.84225380026269</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.102585177525693</v>
+        <v>8.597111884653138</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.364343608652138</v>
+        <v>8.570861261214944</v>
       </c>
       <c r="E16">
-        <v>13.93115293176564</v>
+        <v>12.73432515134429</v>
       </c>
       <c r="F16">
-        <v>33.06834992567025</v>
+        <v>26.58663318473695</v>
       </c>
       <c r="G16">
-        <v>3.645288207719006</v>
+        <v>2.063958813891974</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.9250144147701</v>
+        <v>6.872992883840958</v>
       </c>
       <c r="K16">
-        <v>13.61019467064077</v>
+        <v>20.05991408056317</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.51579875676033</v>
+        <v>11.82905995217381</v>
       </c>
       <c r="O16">
-        <v>24.68012477995453</v>
+        <v>17.61434942189955</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.065085461184619</v>
+        <v>8.415585695384287</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.336935559597256</v>
+        <v>8.42773282320357</v>
       </c>
       <c r="E17">
-        <v>13.89620287716569</v>
+        <v>12.52672501934489</v>
       </c>
       <c r="F17">
-        <v>33.05106860387475</v>
+        <v>26.26802837123517</v>
       </c>
       <c r="G17">
-        <v>3.646115434607596</v>
+        <v>2.066340350747532</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.923724591987325</v>
+        <v>6.811781789606757</v>
       </c>
       <c r="K17">
-        <v>13.46040799254729</v>
+        <v>19.65682735688152</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.53888151210914</v>
+        <v>11.90773887762753</v>
       </c>
       <c r="O17">
-        <v>24.69061079748256</v>
+        <v>17.47887838971754</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.043605027850681</v>
+        <v>8.320061026562586</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.321283809306763</v>
+        <v>8.344682249133141</v>
       </c>
       <c r="E18">
-        <v>13.87633666070075</v>
+        <v>12.40655770972241</v>
       </c>
       <c r="F18">
-        <v>33.04195397876047</v>
+        <v>26.0858833173365</v>
       </c>
       <c r="G18">
-        <v>3.646597874322919</v>
+        <v>2.067718156097879</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.92314015279565</v>
+        <v>6.776787746427009</v>
       </c>
       <c r="K18">
-        <v>13.37361224450511</v>
+        <v>19.42152806040559</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.55233877858357</v>
+        <v>11.95328525263887</v>
       </c>
       <c r="O18">
-        <v>24.69721572660242</v>
+        <v>17.40254232120779</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.036348004819125</v>
+        <v>8.290382311312392</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.316004115478579</v>
+        <v>8.316439430543442</v>
       </c>
       <c r="E19">
-        <v>13.86965132681357</v>
+        <v>12.36574276996121</v>
       </c>
       <c r="F19">
-        <v>33.03900979435758</v>
+        <v>26.02440568542742</v>
       </c>
       <c r="G19">
-        <v>3.646762362227592</v>
+        <v>2.06818606075217</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.922969338196316</v>
+        <v>6.764976448607745</v>
       </c>
       <c r="K19">
-        <v>13.34411717649241</v>
+        <v>19.34126503398633</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.55692624081062</v>
+        <v>11.9687569451209</v>
       </c>
       <c r="O19">
-        <v>24.69955050489196</v>
+        <v>17.37696698435859</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.069068385641778</v>
+        <v>8.435077693898819</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.339841625260755</v>
+        <v>8.443044672657727</v>
       </c>
       <c r="E20">
-        <v>13.89989904372777</v>
+        <v>12.548903743318</v>
       </c>
       <c r="F20">
-        <v>33.05282286922289</v>
+        <v>26.30183048663722</v>
       </c>
       <c r="G20">
-        <v>3.646026687977729</v>
+        <v>2.066086009950741</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.923845608696846</v>
+        <v>6.81827589420794</v>
       </c>
       <c r="K20">
-        <v>13.47642019064516</v>
+        <v>19.70009380937632</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.53640562161531</v>
+        <v>11.89933317804755</v>
       </c>
       <c r="O20">
-        <v>24.68943515800222</v>
+        <v>17.49313536966407</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.180009095353686</v>
+        <v>8.959018809241513</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.421250135842344</v>
+        <v>8.859634760866305</v>
       </c>
       <c r="E21">
-        <v>14.00431309084255</v>
+        <v>13.15504578490956</v>
       </c>
       <c r="F21">
-        <v>33.10907878623462</v>
+        <v>27.24695125579666</v>
       </c>
       <c r="G21">
-        <v>3.643634149850485</v>
+        <v>2.05912367537736</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.928668591116711</v>
+        <v>6.99986327906488</v>
       </c>
       <c r="K21">
-        <v>13.91306467181946</v>
+        <v>20.86454755243014</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.46961550915687</v>
+        <v>11.66955265962833</v>
       </c>
       <c r="O21">
-        <v>24.66230700952762</v>
+        <v>17.90244567325228</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.253146472107332</v>
+        <v>9.28712899389649</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.475373062622392</v>
+        <v>9.125141997556739</v>
       </c>
       <c r="E22">
-        <v>14.07454812836917</v>
+        <v>13.54396957324569</v>
       </c>
       <c r="F22">
-        <v>33.15315189491129</v>
+        <v>27.87385450574678</v>
       </c>
       <c r="G22">
-        <v>3.642129274541782</v>
+        <v>2.054638102416178</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.933215848585874</v>
+        <v>7.120333161885652</v>
       </c>
       <c r="K22">
-        <v>14.19212731282397</v>
+        <v>21.59517514391357</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.42756619603274</v>
+        <v>11.52192480180264</v>
       </c>
       <c r="O22">
-        <v>24.64969723207649</v>
+        <v>18.18429946034163</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.214061454579538</v>
+        <v>9.113311748851627</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.446406834133734</v>
+        <v>8.984065914134138</v>
       </c>
       <c r="E23">
-        <v>14.0368852308809</v>
+        <v>13.33707295678007</v>
       </c>
       <c r="F23">
-        <v>33.12896294884612</v>
+        <v>27.53844989838818</v>
       </c>
       <c r="G23">
-        <v>3.642927092593154</v>
+        <v>2.057026549046309</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.930661587943321</v>
+        <v>7.055876764244359</v>
       </c>
       <c r="K23">
-        <v>14.04379056799654</v>
+        <v>21.20798966059855</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.44986246892663</v>
+        <v>11.60048611581554</v>
       </c>
       <c r="O23">
-        <v>24.65595834149883</v>
+        <v>18.03254473083655</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.067267458764439</v>
+        <v>8.426270578781695</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.338527463413529</v>
+        <v>8.436124562154918</v>
       </c>
       <c r="E24">
-        <v>13.89822729845872</v>
+        <v>12.53887927605039</v>
       </c>
       <c r="F24">
-        <v>33.05202720917076</v>
+        <v>26.28654534960719</v>
       </c>
       <c r="G24">
-        <v>3.646066788968826</v>
+        <v>2.066200970479448</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.923790407629731</v>
+        <v>6.815339294596138</v>
       </c>
       <c r="K24">
-        <v>13.46918319148028</v>
+        <v>19.68054413656749</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.53752439011024</v>
+        <v>11.90313241984633</v>
       </c>
       <c r="O24">
-        <v>24.68996486933263</v>
+        <v>17.48668497006799</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.912398388428113</v>
+        <v>7.764375286169188</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.226515639311012</v>
+        <v>7.817571455988581</v>
       </c>
       <c r="E25">
-        <v>13.75774730629466</v>
+        <v>11.64923440256077</v>
       </c>
       <c r="F25">
-        <v>33.00059626989763</v>
+        <v>24.97903859245836</v>
       </c>
       <c r="G25">
-        <v>3.649707564968808</v>
+        <v>2.076406581124624</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.922400269593281</v>
+        <v>6.564099668732766</v>
       </c>
       <c r="K25">
-        <v>12.82524623760381</v>
+        <v>17.90073114720833</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.63899414259977</v>
+        <v>12.24080130143119</v>
       </c>
       <c r="O25">
-        <v>24.74856674147276</v>
+        <v>16.958224077664</v>
       </c>
     </row>
   </sheetData>
